--- a/bloco_22/22.2/Tablea forma normal 1, 2 e 3.xlsx
+++ b/bloco_22/22.2/Tablea forma normal 1, 2 e 3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t xml:space="preserve">Cliente_id</t>
   </si>
@@ -34,6 +34,39 @@
     <t xml:space="preserve">Endereco</t>
   </si>
   <si>
+    <t xml:space="preserve">Doren Fatima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rua Norte Sul, 35, Belo Horizonte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramon Jonathan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PlayStation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Av Rodrigues Ramos, 950 Bahia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanderson Judis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xbox, Playstation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rua Brusque 352, Ipatinga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carolina Rude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Av Atlantica, 254, Camboriú</t>
+  </si>
+  <si>
     <t xml:space="preserve">Assinaturas</t>
   </si>
   <si>
@@ -46,15 +79,6 @@
     <t xml:space="preserve">Preço</t>
   </si>
   <si>
-    <t xml:space="preserve">Doren Fatima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xbox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rua Norte Sul, 35, Belo Horizonte</t>
-  </si>
-  <si>
     <t xml:space="preserve">LancamentosXbox</t>
   </si>
   <si>
@@ -64,15 +88,6 @@
     <t xml:space="preserve">47-99855-6995</t>
   </si>
   <si>
-    <t xml:space="preserve">Ramon Jonathan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PlayStation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Av Rodrigues Ramos, 950 Bahia</t>
-  </si>
-  <si>
     <t xml:space="preserve">LancamentosPlayStation</t>
   </si>
   <si>
@@ -82,15 +97,6 @@
     <t xml:space="preserve">33-5259-79855</t>
   </si>
   <si>
-    <t xml:space="preserve">Vanderson Judis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xbox, Playstation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rua Brusque 352, Ipatinga</t>
-  </si>
-  <si>
     <t xml:space="preserve">LancamentosPlayStation, LancamentosXbox</t>
   </si>
   <si>
@@ -100,12 +106,6 @@
     <t xml:space="preserve">0800-6699-3555</t>
   </si>
   <si>
-    <t xml:space="preserve">Carolina Rude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Av Atlantica, 254, Camboriú</t>
-  </si>
-  <si>
     <t xml:space="preserve">Clientes</t>
   </si>
   <si>
@@ -139,25 +139,25 @@
     <t xml:space="preserve">Camboriú</t>
   </si>
   <si>
+    <t xml:space="preserve">Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telefone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">Assinaturas_id</t>
   </si>
   <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nome</t>
   </si>
   <si>
-    <t xml:space="preserve">Intem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telefone</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fornecedor_id</t>
   </si>
 </sst>
 </file>
@@ -167,7 +167,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -197,12 +197,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -280,7 +274,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -306,10 +300,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -386,16 +376,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B1:H5" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="B1:H5"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B1:G5" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="B1:G5"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Cliente"/>
     <tableColumn id="2" name="Item"/>
     <tableColumn id="3" name="Endereco"/>
-    <tableColumn id="4" name="Assinaturas"/>
-    <tableColumn id="5" name="Fornecedor"/>
-    <tableColumn id="6" name="ContatoFornecedor"/>
-    <tableColumn id="7" name="Preço"/>
+    <tableColumn id="4" name=""/>
+    <tableColumn id="5" name=""/>
+    <tableColumn id="6" name=""/>
   </tableColumns>
 </table>
 </file>
@@ -405,23 +394,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1048576"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7:F25"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="23.6015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="1" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="29.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.93"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="6" style="1" width="23.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -437,43 +424,19 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>1850</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -481,25 +444,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>2100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -507,25 +458,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>3950</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -533,138 +472,105 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="1" t="n">
+      <c r="D10" s="1" t="n">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="n">
         <v>2100</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>39</v>
+      <c r="A15" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -672,19 +578,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="6" t="n">
-        <v>1850</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -692,105 +592,228 @@
         <v>2</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="6" t="n">
-        <v>2100</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>45</v>
+      <c r="A19" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="A21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B22" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C22" s="6" t="n">
-        <v>2</v>
+      <c r="A22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B23" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C23" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B24" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C24" s="6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B25" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C25" s="6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0"/>
-    </row>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B38" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0"/>
+      <c r="B39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0"/>
+      <c r="B40" s="0"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
